--- a/src/test/java/com/hiberus/university/selenium/planDePruebas/Plan de pruebas.xlsx
+++ b/src/test/java/com/hiberus/university/selenium/planDePruebas/Plan de pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flores\Escritorio\Curso QA\Practica Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0585E4CF-AF37-458D-90D6-D67487BBA939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E643CE05-4E58-4C75-A00A-CAD9B707C5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822B5647-530E-45F0-88D2-71CFD1619765}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="94">
   <si>
     <t>Prueba</t>
   </si>
@@ -55,9 +55,6 @@
     <t>3. El usuario introduce su nombre</t>
   </si>
   <si>
-    <t>2. Verificar que el usuario no se puede registrar porque falta el checkbox</t>
-  </si>
-  <si>
     <t>1. Verificar que el usuario se puede registrar</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>15. Aparece el texto successfully dentro de alguna frase del texto final</t>
   </si>
   <si>
-    <t>1. Verificar que el usuario puede realizar el ckeckout por el methodo de pago contrareembolso</t>
-  </si>
-  <si>
     <t>13. El usuario selecciona el methodo de pago Cash, hace ckeck en el checkbox y hace clcik en continuar</t>
   </si>
   <si>
@@ -308,6 +302,21 @@
   </si>
   <si>
     <t>1. Verificar que el usuario puede cerrar la sesion</t>
+  </si>
+  <si>
+    <t>2. Verificar que el usuario puede realizar el ckeckout por el methodo de pago contrareembolso</t>
+  </si>
+  <si>
+    <t>3. Verificar que el usuario no se puede registrar porque falta el checkbox</t>
+  </si>
+  <si>
+    <t>2. Verificar que el usuario se no se puede registrar con un correo ya regisstrado</t>
+  </si>
+  <si>
+    <t>5. El usuario introduce su email ya registrado</t>
+  </si>
+  <si>
+    <t>10. Aparece el mensaje de error</t>
   </si>
 </sst>
 </file>
@@ -346,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -508,14 +523,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -535,6 +551,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,22 +566,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20% - Énfasis3" xfId="3" builtinId="38"/>
     <cellStyle name="40% - Énfasis3" xfId="4" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="5" builtinId="40"/>
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -874,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB62F92-6E78-435A-9D83-7C1223734F79}">
-  <dimension ref="A2:D112"/>
+  <dimension ref="A2:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,11 +920,11 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="2:4" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -911,972 +938,1065 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>7</v>
+      <c r="B5" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="5" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="5" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="5" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>6</v>
+      <c r="B15" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="19"/>
+      <c r="C19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="19"/>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="19"/>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="19"/>
+      <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+      <c r="C23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="19"/>
+      <c r="C24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D29" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="7" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D30" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="7" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="7" t="s">
+      <c r="D31" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D32" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
-      <c r="C23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="10" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="27"/>
+      <c r="C33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="4" t="s">
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
+    <row r="37" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
-      <c r="C28" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
-      <c r="C31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="20"/>
-      <c r="C32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
-      <c r="C34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
-      <c r="C35" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
-      <c r="C36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="17"/>
-      <c r="C37" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
-      <c r="C38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="23" t="s">
+      <c r="C38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="18"/>
+      <c r="C39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="18"/>
+      <c r="C40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-    </row>
-    <row r="41" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="19" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="18"/>
+      <c r="C41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="18"/>
       <c r="C42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="20"/>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="20"/>
-      <c r="C44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>16</v>
+      <c r="B44" s="19"/>
+      <c r="C44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="20"/>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="19"/>
+      <c r="C46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="19"/>
+      <c r="C47" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="20"/>
-      <c r="C46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="20"/>
-      <c r="C47" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>60</v>
+      <c r="D47" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="20"/>
-      <c r="C48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="C48" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:4" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="17"/>
-      <c r="C50" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="8" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="18"/>
+      <c r="C53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="18"/>
+      <c r="C54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="18"/>
+      <c r="C55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="17"/>
-      <c r="C51" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="17"/>
-      <c r="C52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="17"/>
-      <c r="C53" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="17"/>
-      <c r="C54" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="17"/>
-      <c r="C55" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" s="18"/>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="18"/>
+      <c r="C57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="10" t="s">
+    </row>
+    <row r="58" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="18"/>
+      <c r="C58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>32</v>
+      <c r="B60" s="19"/>
+      <c r="C60" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="20"/>
-      <c r="C61" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>34</v>
+      <c r="B61" s="19"/>
+      <c r="C61" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="20"/>
-      <c r="C62" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>16</v>
+      <c r="B62" s="19"/>
+      <c r="C62" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="20"/>
-      <c r="C63" s="5" t="s">
+      <c r="B63" s="19"/>
+      <c r="C63" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>35</v>
+      <c r="D63" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="20"/>
-      <c r="C64" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>37</v>
+      <c r="B64" s="19"/>
+      <c r="C64" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="20"/>
-      <c r="C65" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="B65" s="19"/>
+      <c r="C65" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="20"/>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="18"/>
+      <c r="C71" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="18"/>
+      <c r="C72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="18"/>
+      <c r="C73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="18"/>
+      <c r="C74" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="18"/>
+      <c r="C75" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="18"/>
+      <c r="C76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="18"/>
+      <c r="C77" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D77" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="18"/>
+      <c r="C78" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="22"/>
+      <c r="C79" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="20"/>
-      <c r="C67" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="20"/>
-      <c r="C68" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="21"/>
-      <c r="C69" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" s="14" t="s">
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+    </row>
+    <row r="82" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="17.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="18"/>
+      <c r="C84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="18"/>
+      <c r="C85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="18"/>
+      <c r="C86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="18"/>
+      <c r="C87" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="18"/>
+      <c r="C88" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="18"/>
+      <c r="C89" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="18"/>
+      <c r="C90" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="18"/>
+      <c r="C91" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:4" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-    </row>
-    <row r="72" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="4" t="s">
+      <c r="D91" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="18"/>
+      <c r="C92" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="18"/>
+      <c r="C93" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="18"/>
+      <c r="C94" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="18"/>
+      <c r="C95" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="18"/>
+      <c r="C96" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="18"/>
+      <c r="C97" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="19"/>
+      <c r="C99" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" s="19"/>
+      <c r="C100" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" s="19"/>
+      <c r="C101" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" s="19"/>
+      <c r="C102" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="19"/>
+      <c r="C103" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" s="19"/>
+      <c r="C104" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" s="19"/>
+      <c r="C105" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" s="19"/>
+      <c r="C106" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" s="19"/>
+      <c r="C107" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" s="19"/>
+      <c r="C108" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" s="19"/>
+      <c r="C109" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" s="19"/>
+      <c r="C110" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="19"/>
+      <c r="C111" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" s="20"/>
+      <c r="C112" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B114" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+    </row>
+    <row r="115" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D115" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="16.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="11" t="s">
+    <row r="116" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="20"/>
-      <c r="C74" s="5" t="s">
+      <c r="D116" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="20"/>
-      <c r="C75" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="20"/>
-      <c r="C76" s="5" t="s">
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="18"/>
+      <c r="C117" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="18"/>
+      <c r="C118" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="18"/>
+      <c r="C119" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" s="18"/>
+      <c r="C120" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="20"/>
-      <c r="C77" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="20"/>
-      <c r="C78" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="20"/>
-      <c r="C79" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="20"/>
-      <c r="C80" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="20"/>
-      <c r="C81" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="20"/>
-      <c r="C82" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="20"/>
-      <c r="C83" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="20"/>
-      <c r="C84" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="20"/>
-      <c r="C85" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="20"/>
-      <c r="C86" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="20"/>
-      <c r="C87" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="17"/>
-      <c r="C89" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="17"/>
-      <c r="C90" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="17"/>
-      <c r="C91" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="17"/>
-      <c r="C92" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="17"/>
-      <c r="C93" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="17"/>
-      <c r="C94" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="17"/>
-      <c r="C95" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" s="17"/>
-      <c r="C96" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="17"/>
-      <c r="C97" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="17"/>
-      <c r="C98" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="17"/>
-      <c r="C99" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="17"/>
-      <c r="C100" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" s="8" t="s">
+      <c r="D120" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="18"/>
+      <c r="C121" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="17"/>
-      <c r="C101" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="18"/>
-      <c r="C102" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B104" s="23" t="s">
+      <c r="D121" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="22"/>
+      <c r="C122" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-    </row>
-    <row r="105" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="20"/>
-      <c r="C107" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="20"/>
-      <c r="C108" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="20"/>
-      <c r="C109" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="20"/>
-      <c r="C110" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="20"/>
-      <c r="C111" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="21"/>
-      <c r="C112" s="13" t="s">
+      <c r="D122" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D112" s="14" t="s">
-        <v>89</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B15:B23"/>
+  <mergeCells count="17">
+    <mergeCell ref="B83:B97"/>
+    <mergeCell ref="B98:B112"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="B81:D81"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B27:B32"/>
     <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B88:B102"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B73:B87"/>
-    <mergeCell ref="B58:D58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
